--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14560"/>
+    <workbookView windowWidth="28060" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>文献作者</t>
+  </si>
+  <si>
+    <t>文献题目</t>
+  </si>
+  <si>
+    <t>文献类型</t>
+  </si>
+  <si>
+    <t>出版机构</t>
+  </si>
+  <si>
+    <t>出版年份</t>
+  </si>
+  <si>
+    <t>卷号（期号）</t>
+  </si>
+  <si>
+    <t>起始页码或出版月</t>
+  </si>
+  <si>
+    <t>结束页码或出版日</t>
+  </si>
   <si>
     <t>夏鲁惠</t>
   </si>
@@ -26,6 +50,42 @@
   </si>
   <si>
     <t>高等理科教育</t>
+  </si>
+  <si>
+    <t>王天亮，刘建坤，彭丽云</t>
+  </si>
+  <si>
+    <t>冻融循环作用下水泥改良土的力学性质研究</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>谢希德</t>
+  </si>
+  <si>
+    <t>创造学习的新思路</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>人民日报</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -34,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -48,8 +108,8 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -60,14 +120,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,9 +156,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,41 +178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,23 +208,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,21 +255,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,12 +285,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="14"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -243,186 +297,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -442,21 +496,6 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,21 +523,6 @@
       </right>
       <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -539,6 +563,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -560,21 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -582,15 +609,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,11 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,152 +662,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -796,19 +820,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1981,266 +1999,289 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="256" width="16.3482142857143" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="16.3303571428571" style="1"/>
+    <col min="1" max="255" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="256" max="16384" width="16.3303571428571" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+    <row r="1" ht="20.25" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="62.55" customHeight="1" spans="1:9">
-      <c r="A2" s="3">
+    <row r="2" ht="62.55" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2004</v>
+      </c>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2004</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="4">
         <v>46</v>
       </c>
-      <c r="I2" s="5">
+      <c r="H2" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+    <row r="3" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+    <row r="4" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+    <row r="5" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+    <row r="6" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+    <row r="7" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+    <row r="8" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+    <row r="9" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+    <row r="10" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+    <row r="11" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+    <row r="12" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+    <row r="13" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+    <row r="14" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+    <row r="15" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+    <row r="16" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+    <row r="17" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+    <row r="18" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+    <row r="19" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+    <row r="20" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+    <row r="21" ht="20.05" customHeight="1" spans="1:8">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>

--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13200"/>
+    <workbookView windowWidth="28060" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -119,25 +119,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,9 +147,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +163,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,24 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,8 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,16 +223,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,61 +297,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,121 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,15 +579,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -602,17 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,6 +609,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -643,17 +644,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,152 +668,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -824,6 +830,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2002,7 +2011,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="7"/>
@@ -2070,20 +2079,20 @@
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2091,197 +2100,197 @@
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:8">
       <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:8">
       <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" ht="20.05" customHeight="1" spans="1:8">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:8">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" ht="20.05" customHeight="1" spans="1:8">
       <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" ht="20.05" customHeight="1" spans="1:8">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:8">
       <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:8">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:8">
       <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:8">
       <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:8">
       <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" ht="20.05" customHeight="1" spans="1:8">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" ht="20.05" customHeight="1" spans="1:8">
       <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:8">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:8">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:8">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:8">
       <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
